--- a/biology/Neurosciences/Thomas_Boraud/Thomas_Boraud.xlsx
+++ b/biology/Neurosciences/Thomas_Boraud/Thomas_Boraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Boraud est un neurobiologiste français né en 1968, spécialiste de l’activité neuronale.
 </t>
@@ -511,9 +523,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Directeur de recherche au CNRS[1], il dirige une équipe de recherche à l’Institut des maladies neurodégénératives (Unité CNRS/Univ. de Bordeaux[2]) dont les travaux portent sur l’identification des substrats neurobiologiques des processus de prise de décision.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Directeur de recherche au CNRS, il dirige une équipe de recherche à l’Institut des maladies neurodégénératives (Unité CNRS/Univ. de Bordeaux) dont les travaux portent sur l’identification des substrats neurobiologiques des processus de prise de décision.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Matière à décision[3] CNRS Éditions, 260 pages, 2015  (ISBN 2271081181)[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Matière à décision CNRS Éditions, 260 pages, 2015  (ISBN 2271081181)
 Thomas Boraud, « Cogitez si vous voulez, les décisions sont irrationnelles », Libération,‎ 5 mars 2015 (lire en ligne, consulté le 29 avril 2015)
 Sur la maladie de Parkinson : (en) Benazzouz A, Gross C, Féger J, Boraud T, Bioulac B. « Reversal of rigidity and improvement in motor performance by subthalamic high-frequency stimulation in MPTP-treated monkeys » Eur J Neurosci. 1993;5(4):382-9. PMID 8261116
 Sur le trouble du déficit de l'attention avec ou sans hyperactivité : (en)Gonon F, Konsman JP, Cohen D, Boraud T, Why Most Biomedical Findings Echoed by Newspapers Turn Out to be False: The Case of Attention Deficit Hyperactivity Disorder, Plos One</t>
